--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2419277.754997671</v>
+        <v>2527428.847911965</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9229309.456459936</v>
+        <v>9235352.467047196</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>67.78587334647227</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +676,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>87.00308244147098</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>122.1528448013254</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>208.9226596913044</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>208.8990535094716</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +913,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>7.58228479143914</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>50.9807481254279</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>36.34690181272098</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>59.94668330576996</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1294,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>140.4936753354119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>234.9685790165316</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>251.3952559653339</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>193.9962538432431</v>
       </c>
     </row>
     <row r="14">
@@ -1661,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>13.74238375877684</v>
+        <v>134.455561535379</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1818,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>35.5681568344734</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2084,10 +2086,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>79.9081607862897</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>53.08838020946283</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2488,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>180.3302385618274</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>30.85302310518039</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.8744394430833</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2722,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>65.67353929277157</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2843,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>77.3950726440254</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>285.5970594671152</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3193,13 +3195,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>59.96838802184498</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>146.6281161973739</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>33.84547402811447</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3554,10 +3556,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>80.08971311158706</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>137.3021949834108</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3749,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3898,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>132.2740511637308</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4135,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>120.7871326503977</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1977.695380320764</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="C2" t="n">
-        <v>1608.732863380353</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D2" t="n">
-        <v>1250.467164773602</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4328,16 +4330,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4346,7 +4348,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2474.457426944124</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2265.711785549949</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2012.130724814128</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>2012.130724814128</v>
       </c>
       <c r="W2" t="n">
-        <v>1977.695380320764</v>
+        <v>2012.130724814128</v>
       </c>
       <c r="X2" t="n">
-        <v>1977.695380320764</v>
+        <v>2012.130724814128</v>
       </c>
       <c r="Y2" t="n">
-        <v>1977.695380320764</v>
+        <v>1621.991392838317</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>551.602574876695</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>846.3061319081668</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4446,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>511.5561461081621</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>342.6199631802552</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>342.6199631802552</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>219.2332512597245</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
         <v>219.2332512597245</v>
@@ -4486,52 +4488,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.765895288653</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1021.765895288653</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>732.3487252516923</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X4" t="n">
-        <v>732.3487252516923</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y4" t="n">
-        <v>511.5561461081621</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1230.118083357703</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C5" t="n">
-        <v>1230.118083357703</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="D5" t="n">
-        <v>1230.118083357703</v>
+        <v>684.90618255198</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190805</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>1831.290404920691</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X5" t="n">
-        <v>1831.290404920691</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y5" t="n">
-        <v>1441.151072944879</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4650,13 +4652,13 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>815.114548125109</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1178.376567084329</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N6" t="n">
-        <v>1565.661695681274</v>
+        <v>1861.38035112061</v>
       </c>
       <c r="O6" t="n">
         <v>2199.840679460312</v>
@@ -4677,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>648.5734018828547</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C7" t="n">
-        <v>479.6372189549478</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D7" t="n">
-        <v>471.9783454282416</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282416</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4753,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1158.783151063345</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>869.3659810263848</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X7" t="n">
-        <v>869.3659810263848</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>648.5734018828547</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1698.50962791956</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C8" t="n">
-        <v>1329.547110979148</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D8" t="n">
-        <v>971.2814123723974</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E8" t="n">
-        <v>971.2814123723974</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>560.2955075827899</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>145.2230574277864</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>1230.929670823581</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.50962791956</v>
+        <v>1230.929670823581</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>551.0642295677645</v>
+        <v>792.8801184070676</v>
       </c>
       <c r="C10" t="n">
-        <v>382.1280466398576</v>
+        <v>623.9439354791607</v>
       </c>
       <c r="D10" t="n">
-        <v>382.1280466398576</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574645</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1195.321162380837</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1195.321162380837</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>1195.321162380837</v>
       </c>
       <c r="W10" t="n">
-        <v>732.7126943980043</v>
+        <v>1195.321162380837</v>
       </c>
       <c r="X10" t="n">
-        <v>732.7126943980043</v>
+        <v>1195.321162380837</v>
       </c>
       <c r="Y10" t="n">
-        <v>732.7126943980043</v>
+        <v>974.5285832373073</v>
       </c>
     </row>
     <row r="11">
@@ -5030,31 +5032,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,22 +5123,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>542.9134462654469</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1179.766763663633</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>951.777212765616</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y13" t="n">
-        <v>951.777212765616</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5276,10 +5278,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5309,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5361,10 +5363,10 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
         <v>1344.266747951538</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171301</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892232</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="D16" t="n">
-        <v>564.5188827892232</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="E16" t="n">
-        <v>416.6057892068301</v>
+        <v>620.6249953635651</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="17">
@@ -5501,31 +5503,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5555,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>3715.300272664238</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>3715.300272664238</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P18" t="n">
-        <v>2366.028450684176</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171301</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>733.4550657171301</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>733.4550657171301</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>585.541972134737</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>438.6520246368266</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G19" t="n">
-        <v>271.4559253517065</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>129.7440941939046</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473698</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5747,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5829,10 +5831,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
         <v>716.6687843969308</v>
@@ -5884,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081859</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="C22" t="n">
         <v>3173.601046153952</v>
@@ -5932,28 +5934,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S22" t="n">
-        <v>4543.07213472545</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T22" t="n">
-        <v>4323.470669748392</v>
+        <v>4637.208525924389</v>
       </c>
       <c r="U22" t="n">
-        <v>4034.395443092589</v>
+        <v>4348.133299268587</v>
       </c>
       <c r="V22" t="n">
-        <v>4034.395443092589</v>
+        <v>4093.4488110627</v>
       </c>
       <c r="W22" t="n">
-        <v>3744.978273055629</v>
+        <v>3804.031641025739</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055629</v>
+        <v>3576.042090127722</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>3355.249510984192</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5993,16 +5995,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M24" t="n">
-        <v>738.7889117913853</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N24" t="n">
-        <v>1366.386875345992</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O24" t="n">
-        <v>1918.296605585279</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P24" t="n">
-        <v>2341.919755080347</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.811327457202</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X25" t="n">
-        <v>1113.119525808646</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6312,19 +6314,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2971.84874707406</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>2802.912564146153</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>2652.795924733818</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>2504.882831151424</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>2504.882831151424</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673937</v>
+        <v>2380.626175203724</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.110757018135</v>
+        <v>2091.550948547922</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.426268812248</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W28" t="n">
-        <v>3571.009098775287</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X28" t="n">
-        <v>3343.01954787727</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y28" t="n">
-        <v>3122.22696873374</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,25 +6542,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349511</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832229</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C31" t="n">
-        <v>634.927936255316</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.979202260897</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1434.29471405501</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.29471405501</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156993</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134626</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="32">
@@ -6686,25 +6688,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6716,10 +6718,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.002557118213</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>2716.927329289434</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>3212.252935505192</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M33" t="n">
-        <v>3809.631423131744</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N33" t="n">
-        <v>4138.923422159307</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O33" t="n">
-        <v>4690.833152398593</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703109</v>
+        <v>615.644930552589</v>
       </c>
       <c r="C34" t="n">
-        <v>695.5020655703109</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D34" t="n">
-        <v>545.3854261579752</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E34" t="n">
-        <v>545.3854261579752</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2298.853875300085</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2079.252410323026</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1790.177183667224</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1535.492695461337</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1246.075525424376</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1018.085974526359</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>797.2933953828287</v>
       </c>
     </row>
     <row r="35">
@@ -6923,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7014,28 +7016,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2387.388512467612</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>733.4550657171301</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>564.5188827892232</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7123,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7175,7 +7177,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,16 +7253,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.7084350851671</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C40" t="n">
-        <v>696.7084350851671</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D40" t="n">
-        <v>546.5917956728314</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E40" t="n">
-        <v>546.5917956728314</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>399.701848174921</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>232.5057488898009</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7436,22 +7438,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,19 +7487,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.5380889459532</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782904</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.741944003829</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797691</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570812</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279797</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487562</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510503</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854701</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854701</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.96868381774</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919723</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537761929</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7728,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2757.723669558405</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>2757.723669558405</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>2607.607030146069</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>2459.693936563676</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>2459.693936563676</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>2459.693936563676</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>2939.372134388645</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8060,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>255.8421700460946</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>30.36925650589495</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,16 +8300,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>224.3355197601779</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039159</v>
+        <v>6.454437538929881</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8541,10 +8543,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>224.3355197601772</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>35.12774237125714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>24.58839950885167</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>131.6786642641544</v>
+        <v>10.96548648755228</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>45.69767948409213</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>101.1181252153549</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>164.3170701178254</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>0.6960474398171641</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>194.8566322838568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30.95754073885402</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>151.7319110345167</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>71.22040037418695</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0.5874149221289713</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25081,13 +25083,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>85.45266000108626</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>34.39816980427074</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>114.7699989900979</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>66.34424953498211</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.992517862813116</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>34.97276993489706</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>19.50758019582618</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>807225.109232812</v>
+        <v>813761.2294839899</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>793677.3183128915</v>
+        <v>793677.3183128916</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>793677.3183128915</v>
+        <v>793677.3183128916</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>793677.3183128916</v>
+        <v>793677.3183128915</v>
       </c>
     </row>
     <row r="13">
@@ -26314,46 +26316,46 @@
         <v>636307.3716448201</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.614759755</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597551</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597546</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="N2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="O2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597551</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081908</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>133113.8635467444</v>
+      </c>
+      <c r="C4" t="n">
         <v>133113.8635467443</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>133113.8635467444</v>
       </c>
-      <c r="D4" t="n">
-        <v>86694.40323307095</v>
-      </c>
       <c r="E4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719546</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-704496.0479176888</v>
+        <v>-704496.0479176884</v>
       </c>
       <c r="C6" t="n">
-        <v>410255.7356582313</v>
+        <v>410255.7356582311</v>
       </c>
       <c r="D6" t="n">
-        <v>249051.8874100173</v>
+        <v>410255.735658231</v>
       </c>
       <c r="E6" t="n">
-        <v>191496.2546667728</v>
+        <v>9423.274849582114</v>
       </c>
       <c r="F6" t="n">
-        <v>516908.716474128</v>
+        <v>516908.7164741279</v>
       </c>
       <c r="G6" t="n">
         <v>516908.7164741281</v>
       </c>
       <c r="H6" t="n">
-        <v>516908.7164741283</v>
+        <v>516908.7164741281</v>
       </c>
       <c r="I6" t="n">
-        <v>516908.7164741281</v>
+        <v>516908.716474128</v>
       </c>
       <c r="J6" t="n">
-        <v>349303.5386641457</v>
+        <v>349303.5386641456</v>
       </c>
       <c r="K6" t="n">
+        <v>516908.7164741282</v>
+      </c>
+      <c r="L6" t="n">
         <v>516908.7164741279</v>
       </c>
-      <c r="L6" t="n">
-        <v>468614.7464659371</v>
-      </c>
       <c r="M6" t="n">
-        <v>431853.6885386163</v>
+        <v>384301.4227452012</v>
       </c>
       <c r="N6" t="n">
-        <v>516908.7164741281</v>
+        <v>516908.7164741278</v>
       </c>
       <c r="O6" t="n">
-        <v>516908.7164741284</v>
+        <v>516908.716474128</v>
       </c>
       <c r="P6" t="n">
-        <v>516908.7164741283</v>
+        <v>516908.716474128</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26795,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>314.1444967257895</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>36.4491329573234</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>24.28111784524376</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>173.8111819721762</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>173.0313165627902</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>141.0331882267732</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,19 +27827,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>258.2608625745995</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>309.7844173726991</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>80.25502066180007</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>51.55441932005942</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,10 +31843,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,13 +31855,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32081,13 +32083,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>309.7666854143577</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32230,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32312,28 +32314,28 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>652.047896915769</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32549,13 +32551,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>430.400187030115</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
@@ -32783,19 +32785,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32807,10 +32809,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>353.2560498238277</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33032,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,28 +33262,28 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192553</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33670,7 +33672,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33734,16 +33736,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>491.1355220041058</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33755,10 +33757,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>270.3182595810212</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33901,7 +33903,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33971,19 +33973,19 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N39" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34138,7 +34140,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34205,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,13 +34216,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N42" t="n">
-        <v>265.5442652399247</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34448,28 +34450,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>442.4296662895795</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>328.0496171437451</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35018,16 +35020,16 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>522.015880398028</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000389</v>
+        <v>341.8791195350528</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>615.5326193530511</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>453.6331143610859</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,13 +35503,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35653,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35729,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>171.2123056344834</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35878,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937507</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36124,7 +36126,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>291.8458072502408</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36373,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36431,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36455,10 +36457,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>213.2742757378062</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359219</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37318,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37382,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>349.0014880820875</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37403,10 +37405,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>130.3364854949997</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37619,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N39" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37786,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N42" t="n">
-        <v>134.2025531565914</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326294803</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -38029,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38096,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>439.1903400640646</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2527428.847911965</v>
+        <v>2523291.690661814</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9235352.467047196</v>
+        <v>9235352.467047192</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>87.00308244147098</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -718,16 +718,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>345.7367844057999</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>171.1971464172148</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>77.21619667811729</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>208.8990535094716</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>336.2588222995057</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>50.9807481254279</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>87.67028805509864</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>233.6967540543199</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>59.94668330576996</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>50.98074812542789</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>140.4936753354119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>193.9962538432431</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>134.455561535379</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161911274</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>26.05480806223585</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>53.08838020946283</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2490,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>180.3302385618274</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>65.67353929277157</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>77.3950726440254</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>146.6281161973739</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560518</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>214.4033048062049</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634788</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>80.08971311158706</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1621.991392838317</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="C2" t="n">
-        <v>1621.991392838317</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="D2" t="n">
-        <v>1263.725694231566</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4348,7 +4348,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2474.457426944124</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2265.711785549949</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2012.130724814128</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2012.130724814128</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2012.130724814128</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="X2" t="n">
-        <v>2012.130724814128</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="Y2" t="n">
-        <v>1621.991392838317</v>
+        <v>1295.021456295685</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458217</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.0891146802707</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4521,19 +4521,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W4" t="n">
-        <v>1463.519709552058</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="X4" t="n">
-        <v>1235.53015865404</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="Y4" t="n">
-        <v>1014.73757951051</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1412.134398099142</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="C5" t="n">
-        <v>1043.17188115873</v>
+        <v>1131.265000636709</v>
       </c>
       <c r="D5" t="n">
-        <v>684.90618255198</v>
+        <v>772.9993020299582</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>772.9993020299582</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X5" t="n">
-        <v>2188.873570139076</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y5" t="n">
-        <v>1798.734238163264</v>
+        <v>1500.22751757712</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>507.2413987429752</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341571</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1861.38035112061</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657491</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378422</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255065</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431134</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F7" t="n">
-        <v>102.742491745203</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037536</v>
+        <v>1293.205785348309</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>1065.216234450291</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959889</v>
+        <v>844.4236553067615</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>844.329830759459</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C8" t="n">
-        <v>844.329830759459</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
-        <v>844.329830759459</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>844.329830759459</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362831</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816094</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872926</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796629</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>2326.28200107256</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182944</v>
+        <v>1973.513345802446</v>
       </c>
       <c r="X8" t="n">
-        <v>1230.929670823581</v>
+        <v>1973.513345802446</v>
       </c>
       <c r="Y8" t="n">
-        <v>1230.929670823581</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1565.661695681274</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>792.8801184070676</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C10" t="n">
-        <v>623.9439354791607</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D10" t="n">
-        <v>473.8272960668249</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E10" t="n">
-        <v>473.8272960668249</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1195.321162380837</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1195.321162380837</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1195.321162380837</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1195.321162380837</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X10" t="n">
-        <v>1195.321162380837</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>974.5285832373073</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="11">
@@ -5032,10 +5032,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5047,16 +5047,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5120,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X13" t="n">
-        <v>1394.184733704551</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="14">
@@ -5269,31 +5269,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>768.5380889459582</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C16" t="n">
-        <v>768.5380889459582</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D16" t="n">
-        <v>768.5380889459582</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>620.6249953635651</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761979</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="17">
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3715.300272664238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3715.300272664238</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3173.601046153952</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>4637.208525924389</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>4348.133299268587</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V22" t="n">
-        <v>4093.4488110627</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>3804.031641025739</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>3576.042090127722</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>3355.249510984192</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5995,13 +5995,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6068,28 +6068,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.811327457202</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2045.209862480144</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2045.209862480144</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>1790.525374274257</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1501.108204237296</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6214,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6317,16 +6317,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429803</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2380.626175203724</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2091.550948547922</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.866460342035</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1547.449290305074</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X28" t="n">
-        <v>1319.459739407057</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y28" t="n">
-        <v>1098.667160263527</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,13 +6478,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>615.644930552589</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>615.644930552589</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2298.853875300085</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2079.252410323026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1790.177183667224</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1535.492695461337</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1246.075525424376</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1018.085974526359</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>797.2933953828287</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,16 +6925,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6958,28 +6958,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2387.388512467612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7074,25 +7074,25 @@
         <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7162,64 +7162,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192468</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111702</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="39">
@@ -7241,40 +7241,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792908</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7377,7 +7377,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7830,10 +7830,10 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
         <v>2035.268256189238</v>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>30.36925650589495</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>240.446544241743</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,28 +8297,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>6.454437538929881</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>224.3355197601772</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>24.58839950885167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>10.96548648755228</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>65.54986409393054</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>164.3170701178254</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0.6960474398171641</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>151.7319110345167</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>71.22040037418695</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>34.39816980427074</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>66.34424953498211</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>793677.3183128916</v>
+        <v>793677.3183128915</v>
       </c>
     </row>
     <row r="11">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.37164482</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448203</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.37164482</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="F2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="I2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.614759755</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597551</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.6147597546</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
@@ -26444,16 +26444,16 @@
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719709</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719731</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719749</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719749</v>
       </c>
       <c r="O4" t="n">
         <v>7507.368461719667</v>
@@ -26475,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-704496.0479176884</v>
+        <v>-704496.0479176887</v>
       </c>
       <c r="C6" t="n">
+        <v>410255.7356582313</v>
+      </c>
+      <c r="D6" t="n">
         <v>410255.7356582311</v>
       </c>
-      <c r="D6" t="n">
-        <v>410255.735658231</v>
-      </c>
       <c r="E6" t="n">
-        <v>9423.274849582114</v>
+        <v>9075.895595225531</v>
       </c>
       <c r="F6" t="n">
-        <v>516908.7164741279</v>
+        <v>516561.3372197707</v>
       </c>
       <c r="G6" t="n">
-        <v>516908.7164741281</v>
+        <v>516561.3372197711</v>
       </c>
       <c r="H6" t="n">
-        <v>516908.7164741281</v>
+        <v>516561.3372197713</v>
       </c>
       <c r="I6" t="n">
-        <v>516908.716474128</v>
+        <v>516561.3372197712</v>
       </c>
       <c r="J6" t="n">
-        <v>349303.5386641456</v>
+        <v>348956.1594097884</v>
       </c>
       <c r="K6" t="n">
-        <v>516908.7164741282</v>
+        <v>516561.3372197711</v>
       </c>
       <c r="L6" t="n">
-        <v>516908.7164741279</v>
+        <v>516561.3372197709</v>
       </c>
       <c r="M6" t="n">
-        <v>384301.4227452012</v>
+        <v>383954.0434908442</v>
       </c>
       <c r="N6" t="n">
-        <v>516908.7164741278</v>
+        <v>516561.3372197712</v>
       </c>
       <c r="O6" t="n">
-        <v>516908.716474128</v>
+        <v>516561.3372197711</v>
       </c>
       <c r="P6" t="n">
-        <v>516908.716474128</v>
+        <v>516561.3372197712</v>
       </c>
     </row>
   </sheetData>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>36.4491329573234</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>3.504184311613074</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>115.3258519193762</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>148.4934587109199</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>173.0313165627902</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>70.61722344220573</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>115.3258519193763</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>198.8527102814924</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>94.05550441581499</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>309.7844173726991</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>80.25502066180007</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
     </row>
     <row r="36">
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1.736439038534721e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31840,7 +31840,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31852,16 +31852,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>232.75998908852</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>652.047896915769</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,31 +32548,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32788,13 +32788,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33499,13 +33499,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33672,7 +33672,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>270.3182595810212</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067219</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33903,7 +33903,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33982,7 +33982,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33997,7 +33997,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34140,7 +34140,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34210,31 +34210,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>590.4022545401851</v>
       </c>
       <c r="M42" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>328.0496171437451</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>490.1260733652754</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676403</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>341.8791195350528</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35263,16 +35263,16 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>615.5326193530511</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000387</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35500,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>509.9138629937507</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36126,10 +36126,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3364854949997</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316015</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37630,7 +37630,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37645,7 +37645,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37858,31 +37858,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>451.847874760311</v>
       </c>
       <c r="M42" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2523291.690661814</v>
+        <v>2525052.220964598</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>169.8512513837136</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>345.7367844057999</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>90.32274420367145</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>77.21619667811729</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>329.3827765577933</v>
       </c>
       <c r="F5" t="n">
-        <v>336.2588222995057</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -916,7 +916,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>87.67028805509864</v>
+        <v>85.36610313819104</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>321.0569174621189</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>233.6967540543199</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542789</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>8.794302634933924</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576154</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19.91555826189063</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.8253826161911274</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>42.53134576113764</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,13 +3480,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>214.4033048062049</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634788</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1295.021456295685</v>
+        <v>2057.32755894284</v>
       </c>
       <c r="C2" t="n">
-        <v>926.0589393552737</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="D2" t="n">
-        <v>926.0589393552737</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570294</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674217</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4330,16 +4330,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W2" t="n">
-        <v>1295.021456295685</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X2" t="n">
-        <v>1295.021456295685</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="Y2" t="n">
-        <v>1295.021456295685</v>
+        <v>2228.89447953245</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>938.9442613508774</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1545.211024919273</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1348.582277079134</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1348.582277079134</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>1348.582277079134</v>
       </c>
       <c r="V4" t="n">
-        <v>1347.327782578335</v>
+        <v>1348.582277079134</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.327782578335</v>
+        <v>1348.582277079134</v>
       </c>
       <c r="X4" t="n">
-        <v>1269.331624317611</v>
+        <v>1120.592726181117</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>1120.592726181117</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1500.22751757712</v>
+        <v>1500.227517577119</v>
       </c>
       <c r="C5" t="n">
-        <v>1131.265000636709</v>
+        <v>1131.265000636708</v>
       </c>
       <c r="D5" t="n">
-        <v>772.9993020299582</v>
+        <v>772.9993020299573</v>
       </c>
       <c r="E5" t="n">
-        <v>772.9993020299582</v>
+        <v>440.289426719055</v>
       </c>
       <c r="F5" t="n">
         <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
         <v>2055.22848474084</v>
@@ -4588,31 +4588,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2184.059060190804</v>
       </c>
       <c r="V5" t="n">
         <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.22751757712</v>
+        <v>1500.227517577119</v>
       </c>
       <c r="X5" t="n">
-        <v>1500.22751757712</v>
+        <v>1500.227517577119</v>
       </c>
       <c r="Y5" t="n">
-        <v>1500.22751757712</v>
+        <v>1500.227517577119</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429752</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L6" t="n">
-        <v>801.944955774447</v>
+        <v>909.2465818694947</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330612</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>662.7751904765217</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>662.7751904765217</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765217</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941286</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962183</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4764,13 +4764,13 @@
         <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>1293.205785348309</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>1065.216234450291</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>844.4236553067615</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>1500.227517577119</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>1131.265000636708</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>772.9993020299573</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>387.2110494317131</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331018</v>
+        <v>62.91113280331015</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362831</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816094</v>
+        <v>442.5171852816077</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872926</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2184.059060190804</v>
       </c>
       <c r="V8" t="n">
-        <v>2326.28200107256</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W8" t="n">
-        <v>1973.513345802446</v>
+        <v>1500.227517577119</v>
       </c>
       <c r="X8" t="n">
-        <v>1973.513345802446</v>
+        <v>1500.227517577119</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>1500.227517577119</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>507.2413987429759</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>801.9449557744475</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255065</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431134</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>102.742491745203</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1627.562986099816</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1430.934238259677</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1207.955757454413</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>918.8374199582506</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>664.1529317523638</v>
       </c>
     </row>
     <row r="11">
@@ -5038,37 +5038,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5266,40 +5266,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.0655846733346</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>411.1294017454277</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.129363765926</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2263.274529420831</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2043.673064443772</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1754.597837787969</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1499.913349582082</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1210.496179545122</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>982.5066286471044</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>761.7140495035743</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,31 +5512,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5740,16 +5740,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5761,10 +5761,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5843,7 +5843,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5983,13 +5983,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6007,16 +6007,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6217,31 +6217,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459582</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>599.6019060180513</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761979</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075809</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,37 +6715,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6852,43 +6852,43 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
         <v>1746.193029533436</v>
@@ -6931,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,64 +7162,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192468</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111702</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7241,40 +7241,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273899</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273899</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273899</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>692.9625378792908</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7736,19 +7736,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7830,16 +7830,16 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
         <v>1491.508541327549</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>240.446544241743</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>211.0329012241554</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>211.0329012241563</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>-9.898752473147822e-13</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>65.54986409393054</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194222</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>34.97276993489203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>138.4949402405069</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>793677.3183128915</v>
+        <v>793677.3183128916</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>793677.3183128916</v>
+        <v>793677.3183128915</v>
       </c>
     </row>
     <row r="9">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448203</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
         <v>636307.37164482</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="F2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="I2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="G2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625538.614759755</v>
-      </c>
       <c r="J2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="M2" t="n">
         <v>625538.6147597546</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="O2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="N2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597549</v>
-      </c>
       <c r="P2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26377,16 +26377,16 @@
         <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
@@ -26401,7 +26401,7 @@
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719705</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
@@ -26438,22 +26438,22 @@
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
+        <v>7507.36846171961</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7507.368461719635</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7507.368461719637</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7507.368461719668</v>
+      </c>
+      <c r="M4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7507.368461719709</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7507.368461719731</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7507.368461719749</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7507.368461719749</v>
       </c>
       <c r="O4" t="n">
         <v>7507.368461719667</v>
@@ -26475,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-704496.0479176887</v>
+        <v>-704496.0479176885</v>
       </c>
       <c r="C6" t="n">
-        <v>410255.7356582313</v>
+        <v>410255.7356582306</v>
       </c>
       <c r="D6" t="n">
-        <v>410255.7356582311</v>
+        <v>410255.7356582308</v>
       </c>
       <c r="E6" t="n">
-        <v>9075.895595225531</v>
+        <v>9388.536924146494</v>
       </c>
       <c r="F6" t="n">
-        <v>516561.3372197707</v>
+        <v>516873.9785486924</v>
       </c>
       <c r="G6" t="n">
-        <v>516561.3372197711</v>
+        <v>516873.9785486921</v>
       </c>
       <c r="H6" t="n">
-        <v>516561.3372197713</v>
+        <v>516873.9785486922</v>
       </c>
       <c r="I6" t="n">
-        <v>516561.3372197712</v>
+        <v>516873.9785486922</v>
       </c>
       <c r="J6" t="n">
-        <v>348956.1594097884</v>
+        <v>349268.8007387097</v>
       </c>
       <c r="K6" t="n">
-        <v>516561.3372197711</v>
+        <v>516873.9785486924</v>
       </c>
       <c r="L6" t="n">
-        <v>516561.3372197709</v>
+        <v>516873.9785486922</v>
       </c>
       <c r="M6" t="n">
-        <v>383954.0434908442</v>
+        <v>384266.6848197654</v>
       </c>
       <c r="N6" t="n">
-        <v>516561.3372197712</v>
+        <v>516873.9785486924</v>
       </c>
       <c r="O6" t="n">
-        <v>516561.3372197711</v>
+        <v>516873.9785486922</v>
       </c>
       <c r="P6" t="n">
-        <v>516561.3372197712</v>
+        <v>516873.9785486921</v>
       </c>
     </row>
   </sheetData>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.064892117539</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.064892117539</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26810,7 +26810,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>212.882590279767</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27435,13 +27435,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>3.504184311613074</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>11.23482821590218</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>148.4934587109199</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>52.54759351446847</v>
       </c>
       <c r="F5" t="n">
-        <v>70.61722344220573</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>198.8527102814924</v>
+        <v>201.1568951984</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>85.81912827959258</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>94.05550441581499</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193763</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>92.76326978463972</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.736439038534721e-12</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31451,16 +31451,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,7 +31518,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
@@ -31536,7 +31536,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166594</v>
@@ -31551,13 +31551,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T8" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
         <v>19.4038763438002</v>
@@ -31606,22 +31606,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q9" t="n">
         <v>256.462496416876</v>
@@ -31673,7 +31673,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
         <v>14.97566335231072</v>
@@ -31688,10 +31688,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067958</v>
@@ -31706,13 +31706,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U10" t="n">
         <v>0.09187523529024984</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
-        <v>232.75998908852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>246.2467565146292</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067219</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33973,13 +33973,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34210,13 +34210,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>590.4022545401851</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34456,7 +34456,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34471,7 +34471,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>490.1260733652754</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>397.6203974676403</v>
+        <v>379.9148430313202</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067507</v>
@@ -35184,7 +35184,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949726</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091737</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>397.6203974676411</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35263,16 +35263,16 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634693</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K10" t="n">
         <v>173.424759342349</v>
@@ -35339,7 +35339,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860244</v>
@@ -35348,7 +35348,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
         <v>54.881755458054</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396436</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>108.4053175402702</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316015</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37621,13 +37621,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37858,13 +37858,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>451.847874760311</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38104,7 +38104,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38119,7 +38119,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
